--- a/biology/Zoologie/Holocentrinae/Holocentrinae.xlsx
+++ b/biology/Zoologie/Holocentrinae/Holocentrinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poissons-écureuils
 La sous-famille des Holocentrinae regroupe des poissons communément appelés poissons écureuil par les Anglais (squirrelfish) et poissons hussard par les Allemands (Husarenfische) mais indifféremment poissons écureuil ou poissons soldats par les Français.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (14 octobre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (14 octobre 2014) :
 genre Faremusca
 genre Holocentrus Scopoli (ex Gronow), 1777
 genre Neoniphon Castelnau, 1875
